--- a/VRoidXYTool/PluginI18N/Language.xlsx
+++ b/VRoidXYTool/PluginI18N/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VRoidXYTool\VRoidXYTool\PluginI18N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A06294-0159-48A9-A9AB-96D837466A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058FB59B-B656-4C80-A679-8D691295C8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1370,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>

--- a/VRoidXYTool/PluginI18N/Language.xlsx
+++ b/VRoidXYTool/PluginI18N/Language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\VRoidXYTool\VRoidXYTool\PluginI18N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F09FBC-DBA3-49A1-BD43-109927AF3370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACADF49-7D8E-42E1-B4AE-53E41850979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="383">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1306,13 +1306,43 @@
   </si>
   <si>
     <t>例外です</t>
+  </si>
+  <si>
+    <t>WireframeTool.Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线框工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireframe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WireframeTool.WireframeMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线框模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireframe Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ワイヤーフレームモード</t>
+  </si>
+  <si>
+    <t>ワイヤーフレーム</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1359,7 +1389,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1637,13 +1667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.625" customWidth="1"/>
     <col min="2" max="2" width="27.625" customWidth="1"/>
@@ -1651,7 +1681,7 @@
     <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1707,7 +1737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1721,7 +1751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +1765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1749,7 +1779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +1793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1777,7 +1807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1791,7 +1821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +1835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1819,7 +1849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +1863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1847,7 +1877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1861,7 +1891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1875,7 +1905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1889,7 +1919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1903,7 +1933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +1947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1931,7 +1961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -1945,7 +1975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1959,7 +1989,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -1973,7 +2003,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -1987,7 +2017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2001,7 +2031,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -2015,7 +2045,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -2029,7 +2059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -2043,7 +2073,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -2057,7 +2087,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -2071,7 +2101,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -2085,7 +2115,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -2099,7 +2129,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -2113,7 +2143,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>130</v>
       </c>
@@ -2127,7 +2157,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>134</v>
       </c>
@@ -2141,7 +2171,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -2155,7 +2185,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -2169,7 +2199,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -2183,7 +2213,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -2197,7 +2227,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -2211,7 +2241,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -2225,7 +2255,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -2239,7 +2269,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>166</v>
       </c>
@@ -2253,7 +2283,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -2267,7 +2297,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -2281,7 +2311,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -2295,7 +2325,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -2309,7 +2339,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -2323,7 +2353,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>190</v>
       </c>
@@ -2337,7 +2367,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -2351,7 +2381,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -2365,7 +2395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -2379,7 +2409,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>206</v>
       </c>
@@ -2393,7 +2423,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>210</v>
       </c>
@@ -2407,7 +2437,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -2421,7 +2451,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>218</v>
       </c>
@@ -2435,7 +2465,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>222</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -2463,7 +2493,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>230</v>
       </c>
@@ -2477,7 +2507,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>234</v>
       </c>
@@ -2491,7 +2521,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -2505,7 +2535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>242</v>
       </c>
@@ -2519,7 +2549,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>246</v>
       </c>
@@ -2533,7 +2563,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>250</v>
       </c>
@@ -2547,7 +2577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>254</v>
       </c>
@@ -2561,7 +2591,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>258</v>
       </c>
@@ -2575,7 +2605,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>262</v>
       </c>
@@ -2589,7 +2619,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>266</v>
       </c>
@@ -2603,7 +2633,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>270</v>
       </c>
@@ -2617,7 +2647,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>274</v>
       </c>
@@ -2631,7 +2661,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>278</v>
       </c>
@@ -2645,7 +2675,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -2659,7 +2689,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>286</v>
       </c>
@@ -2673,7 +2703,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>290</v>
       </c>
@@ -2687,7 +2717,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>294</v>
       </c>
@@ -2701,7 +2731,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>295</v>
       </c>
@@ -2715,7 +2745,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>299</v>
       </c>
@@ -2729,7 +2759,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>303</v>
       </c>
@@ -2743,7 +2773,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>307</v>
       </c>
@@ -2757,7 +2787,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>311</v>
       </c>
@@ -2771,7 +2801,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>315</v>
       </c>
@@ -2785,7 +2815,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>319</v>
       </c>
@@ -2799,7 +2829,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>323</v>
       </c>
@@ -2813,7 +2843,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>327</v>
       </c>
@@ -2827,176 +2857,205 @@
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" t="s">
+        <v>376</v>
+      </c>
+      <c r="C92" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>378</v>
+      </c>
+      <c r="B93" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" t="s">
+        <v>380</v>
+      </c>
+      <c r="D93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>331</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>332</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C95" t="s">
         <v>333</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D95" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>335</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>336</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C96" t="s">
         <v>337</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D96" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>339</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B97" t="s">
         <v>340</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C97" t="s">
         <v>341</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D97" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>343</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
         <v>344</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C98" t="s">
         <v>345</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D98" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>347</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>348</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C99" t="s">
         <v>349</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D99" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>351</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>352</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C100" t="s">
         <v>140</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D100" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>353</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B101" t="s">
         <v>354</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C101" t="s">
         <v>355</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D101" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>357</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B102" t="s">
         <v>358</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C102" t="s">
         <v>359</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D102" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>361</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
         <v>362</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C103" t="s">
         <v>363</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D103" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>364</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
         <v>365</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C104" t="s">
         <v>366</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D104" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>368</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" t="s">
         <v>369</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C105" t="s">
         <v>370</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D105" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>371</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B106" t="s">
         <v>372</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C106" t="s">
         <v>373</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D106" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>